--- a/data/pca/factorExposure/factorExposure_2017-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02389511733218627</v>
+        <v>-0.01352652881868682</v>
       </c>
       <c r="C2">
-        <v>-0.003962115815500139</v>
+        <v>-0.03896357111275794</v>
       </c>
       <c r="D2">
-        <v>0.01603819123100978</v>
+        <v>-0.02875518808454419</v>
       </c>
       <c r="E2">
-        <v>0.0141396501610912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02617127457499195</v>
+      </c>
+      <c r="F2">
+        <v>-0.02349592790491944</v>
+      </c>
+      <c r="G2">
+        <v>-0.02500340827095777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01238099394819751</v>
+        <v>-0.05119801702275605</v>
       </c>
       <c r="C3">
-        <v>-0.04788191322742433</v>
+        <v>-0.07510893989387595</v>
       </c>
       <c r="D3">
-        <v>0.0178396510602582</v>
+        <v>-0.01450395896271843</v>
       </c>
       <c r="E3">
-        <v>0.01314127091264731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08104826171573873</v>
+      </c>
+      <c r="F3">
+        <v>-0.06842157642458759</v>
+      </c>
+      <c r="G3">
+        <v>-0.07239451653206289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02190561607408993</v>
+        <v>-0.05718361265103854</v>
       </c>
       <c r="C4">
-        <v>-0.01868588197881435</v>
+        <v>-0.06231882959813725</v>
       </c>
       <c r="D4">
-        <v>0.06303339061151365</v>
+        <v>-0.02265017616685051</v>
       </c>
       <c r="E4">
-        <v>-0.01237546848799308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01370209960536824</v>
+      </c>
+      <c r="F4">
+        <v>-0.006775855059047435</v>
+      </c>
+      <c r="G4">
+        <v>-0.04922857226311637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01517907070842903</v>
+        <v>-0.03351350579514194</v>
       </c>
       <c r="C6">
-        <v>-0.02417108780253972</v>
+        <v>-0.05245042951760216</v>
       </c>
       <c r="D6">
-        <v>0.08382155379257651</v>
+        <v>-0.01597845539189986</v>
       </c>
       <c r="E6">
-        <v>0.001747859897640842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01117369302395747</v>
+      </c>
+      <c r="F6">
+        <v>-0.007500763725271189</v>
+      </c>
+      <c r="G6">
+        <v>-0.02878550684844996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01027812489854117</v>
+        <v>-0.02055287835144664</v>
       </c>
       <c r="C7">
-        <v>-0.004817777101754228</v>
+        <v>-0.03653320440020021</v>
       </c>
       <c r="D7">
-        <v>0.04035096874578384</v>
+        <v>-0.01274168882629913</v>
       </c>
       <c r="E7">
-        <v>-0.06803783485100318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01166507161214709</v>
+      </c>
+      <c r="F7">
+        <v>-0.002634688213671597</v>
+      </c>
+      <c r="G7">
+        <v>-0.07977043862483368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001754372816136952</v>
+        <v>-0.001163059332383992</v>
       </c>
       <c r="C8">
-        <v>0.009068876411379302</v>
+        <v>-0.01380567898434709</v>
       </c>
       <c r="D8">
-        <v>0.0166592534982267</v>
+        <v>-0.003379509620087181</v>
       </c>
       <c r="E8">
-        <v>-0.005230261730478855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01183650294103349</v>
+      </c>
+      <c r="F8">
+        <v>-0.01853779135189383</v>
+      </c>
+      <c r="G8">
+        <v>-0.02356811888673938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01454152671451538</v>
+        <v>-0.02943532771847708</v>
       </c>
       <c r="C9">
-        <v>-0.01841507524345234</v>
+        <v>-0.04329870075681463</v>
       </c>
       <c r="D9">
-        <v>0.04546603376525495</v>
+        <v>-0.01598379665788952</v>
       </c>
       <c r="E9">
-        <v>-0.002418460380481612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01330860967201977</v>
+      </c>
+      <c r="F9">
+        <v>-0.01467891584361984</v>
+      </c>
+      <c r="G9">
+        <v>-0.04001068580208854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.009911478720133607</v>
+        <v>-0.0910507846635254</v>
       </c>
       <c r="C10">
-        <v>-0.1467413327042127</v>
+        <v>0.1851017281851275</v>
       </c>
       <c r="D10">
-        <v>-0.1337635631618761</v>
+        <v>0.01898983998234133</v>
       </c>
       <c r="E10">
-        <v>-0.01999757517382693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01362135258618796</v>
+      </c>
+      <c r="F10">
+        <v>0.01209682485900217</v>
+      </c>
+      <c r="G10">
+        <v>-0.03978281213730406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002750068867410183</v>
+        <v>-0.03404967546048463</v>
       </c>
       <c r="C11">
-        <v>-0.007487372957797109</v>
+        <v>-0.05353819990475782</v>
       </c>
       <c r="D11">
-        <v>0.04510660198835719</v>
+        <v>-0.001916288562443429</v>
       </c>
       <c r="E11">
-        <v>0.01292056166007856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.002601991067945219</v>
+      </c>
+      <c r="F11">
+        <v>-0.01981932332003464</v>
+      </c>
+      <c r="G11">
+        <v>-0.02229514656498451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005463038721239047</v>
+        <v>-0.03265484250786282</v>
       </c>
       <c r="C12">
-        <v>-0.01514410459959199</v>
+        <v>-0.04465236328078203</v>
       </c>
       <c r="D12">
-        <v>0.04759266658670325</v>
+        <v>-0.005833132994532644</v>
       </c>
       <c r="E12">
-        <v>0.003759779840759706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003968837463799543</v>
+      </c>
+      <c r="F12">
+        <v>-0.004603187710379075</v>
+      </c>
+      <c r="G12">
+        <v>-0.02667880880473812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02155480241161922</v>
+        <v>-0.01443675917857122</v>
       </c>
       <c r="C13">
-        <v>-0.01627909410199122</v>
+        <v>-0.03257605365873456</v>
       </c>
       <c r="D13">
-        <v>0.01215015702676273</v>
+        <v>-0.02486729875595804</v>
       </c>
       <c r="E13">
-        <v>0.009425179301594505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02077304757550109</v>
+      </c>
+      <c r="F13">
+        <v>-0.01558167293428596</v>
+      </c>
+      <c r="G13">
+        <v>-0.033594965048053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007023455075935388</v>
+        <v>-0.009756578537084887</v>
       </c>
       <c r="C14">
-        <v>-0.01184134477249789</v>
+        <v>-0.02688468504313284</v>
       </c>
       <c r="D14">
-        <v>0.01847198551493631</v>
+        <v>-0.008559918995351875</v>
       </c>
       <c r="E14">
-        <v>-0.00913927130248658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005647443318216638</v>
+      </c>
+      <c r="F14">
+        <v>0.001261341510828325</v>
+      </c>
+      <c r="G14">
+        <v>-0.04004922877780383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006671177352838272</v>
+        <v>-0.03217127048918755</v>
       </c>
       <c r="C16">
-        <v>-0.0122373797025349</v>
+        <v>-0.04323842717139589</v>
       </c>
       <c r="D16">
-        <v>0.0517543453165515</v>
+        <v>-0.001369866390266656</v>
       </c>
       <c r="E16">
-        <v>0.007234091592274191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005335228726331444</v>
+      </c>
+      <c r="F16">
+        <v>-0.009543050657320468</v>
+      </c>
+      <c r="G16">
+        <v>-0.02466940123538588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.0132540983588253</v>
+        <v>-0.02891678223699013</v>
       </c>
       <c r="C19">
-        <v>-0.02819531026002074</v>
+        <v>-0.04898519178365645</v>
       </c>
       <c r="D19">
-        <v>0.0286733804062043</v>
+        <v>-0.01562853584110221</v>
       </c>
       <c r="E19">
-        <v>-0.002531265791961454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05167519271656007</v>
+      </c>
+      <c r="F19">
+        <v>-0.03089279364715412</v>
+      </c>
+      <c r="G19">
+        <v>-0.04771105988987449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01035323221977174</v>
+        <v>-0.01289512361010299</v>
       </c>
       <c r="C20">
-        <v>-0.006114848222505284</v>
+        <v>-0.03482938866521655</v>
       </c>
       <c r="D20">
-        <v>0.01457504027723823</v>
+        <v>-0.01306581127637054</v>
       </c>
       <c r="E20">
-        <v>0.002675602012203552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0235866319871113</v>
+      </c>
+      <c r="F20">
+        <v>0.0007323365967350809</v>
+      </c>
+      <c r="G20">
+        <v>-0.03840981902143242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01387967680903848</v>
+        <v>-0.0167930761231536</v>
       </c>
       <c r="C21">
-        <v>-0.03730227137811201</v>
+        <v>-0.03501881357073762</v>
       </c>
       <c r="D21">
-        <v>0.01923666796558666</v>
+        <v>-0.01604389284902665</v>
       </c>
       <c r="E21">
-        <v>-0.01774642077333862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03142835345564052</v>
+      </c>
+      <c r="F21">
+        <v>-0.01107810092306482</v>
+      </c>
+      <c r="G21">
+        <v>-0.06011820644364703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004870141815547948</v>
+        <v>-0.02672888998630029</v>
       </c>
       <c r="C24">
-        <v>-0.008059349045411394</v>
+        <v>-0.04602823471805096</v>
       </c>
       <c r="D24">
-        <v>0.04555456911282397</v>
+        <v>-0.006671032300983097</v>
       </c>
       <c r="E24">
-        <v>0.00745025082845245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0007329161219018767</v>
+      </c>
+      <c r="F24">
+        <v>-0.01592309599334591</v>
+      </c>
+      <c r="G24">
+        <v>-0.02645775651055768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01110409927150178</v>
+        <v>-0.04343212885467016</v>
       </c>
       <c r="C25">
-        <v>-0.02419041355396838</v>
+        <v>-0.05320798714521752</v>
       </c>
       <c r="D25">
-        <v>0.04414626833476681</v>
+        <v>-0.01059782333367641</v>
       </c>
       <c r="E25">
-        <v>0.006448195852875478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.006476660110283974</v>
+      </c>
+      <c r="F25">
+        <v>-0.009862516824832409</v>
+      </c>
+      <c r="G25">
+        <v>-0.03201321954560998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02257919424123987</v>
+        <v>-0.01129281977051691</v>
       </c>
       <c r="C26">
-        <v>-0.007606900719085147</v>
+        <v>-0.009067835505775069</v>
       </c>
       <c r="D26">
-        <v>-0.0037720718708392</v>
+        <v>-0.023691563665167</v>
       </c>
       <c r="E26">
-        <v>-0.007920522112976228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007200848808693085</v>
+      </c>
+      <c r="F26">
+        <v>-0.002956080752744581</v>
+      </c>
+      <c r="G26">
+        <v>-0.03154235742558761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0278425547287844</v>
+        <v>-0.1157990911785717</v>
       </c>
       <c r="C28">
-        <v>-0.2179794703121819</v>
+        <v>0.2259895179264215</v>
       </c>
       <c r="D28">
-        <v>-0.1885859886560455</v>
+        <v>0.009964859844411977</v>
       </c>
       <c r="E28">
-        <v>-0.03198813787721506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.0006647365434182452</v>
+      </c>
+      <c r="F28">
+        <v>0.01234139594065936</v>
+      </c>
+      <c r="G28">
+        <v>-0.0586030594821892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007313691860525885</v>
+        <v>-0.01452115033962817</v>
       </c>
       <c r="C29">
-        <v>-0.01729757278552162</v>
+        <v>-0.0211147815293345</v>
       </c>
       <c r="D29">
-        <v>0.01497112942899683</v>
+        <v>-0.007265613132399202</v>
       </c>
       <c r="E29">
-        <v>-0.004947535159081221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007379207999782813</v>
+      </c>
+      <c r="F29">
+        <v>0.01068928209927148</v>
+      </c>
+      <c r="G29">
+        <v>-0.02996579201525739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02312179896537046</v>
+        <v>-0.04598073086887881</v>
       </c>
       <c r="C30">
-        <v>-0.004076681514272728</v>
+        <v>-0.06852753367513011</v>
       </c>
       <c r="D30">
-        <v>0.06418078384605835</v>
+        <v>-0.02723554072508371</v>
       </c>
       <c r="E30">
-        <v>0.06172167972901056</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03541493103191102</v>
+      </c>
+      <c r="F30">
+        <v>-0.04812867441784721</v>
+      </c>
+      <c r="G30">
+        <v>-0.007515574586406724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007185141945203466</v>
+        <v>-0.04525480580650926</v>
       </c>
       <c r="C31">
-        <v>-0.04799603711631078</v>
+        <v>-0.03171371501526304</v>
       </c>
       <c r="D31">
-        <v>0.04125307538280259</v>
+        <v>-0.003307889745662516</v>
       </c>
       <c r="E31">
-        <v>-0.002333279970313008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00622938621711512</v>
+      </c>
+      <c r="F31">
+        <v>0.03684172680344479</v>
+      </c>
+      <c r="G31">
+        <v>-0.02735890779826463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007125180833332003</v>
+        <v>-0.002901006134344783</v>
       </c>
       <c r="C32">
-        <v>-0.01350618013441589</v>
+        <v>-0.03651854645041743</v>
       </c>
       <c r="D32">
-        <v>0.009685356284422466</v>
+        <v>0.004030737926800302</v>
       </c>
       <c r="E32">
-        <v>-0.02602031391674766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.009749213861548024</v>
+      </c>
+      <c r="F32">
+        <v>-0.05455294013765095</v>
+      </c>
+      <c r="G32">
+        <v>-0.0569343738847806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01222140819073291</v>
+        <v>-0.02751371971509883</v>
       </c>
       <c r="C33">
-        <v>-0.02529024340034177</v>
+        <v>-0.04913189638881318</v>
       </c>
       <c r="D33">
-        <v>0.02350079783618689</v>
+        <v>-0.01437656497490881</v>
       </c>
       <c r="E33">
-        <v>0.02625020697183132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02168623624684609</v>
+      </c>
+      <c r="F33">
+        <v>-0.0277236414889844</v>
+      </c>
+      <c r="G33">
+        <v>-0.03484804036971913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004803091994025977</v>
+        <v>-0.04401370996548699</v>
       </c>
       <c r="C34">
-        <v>-0.02122516980260277</v>
+        <v>-0.05446670823030778</v>
       </c>
       <c r="D34">
-        <v>0.04978848088300491</v>
+        <v>0.005248050631955313</v>
       </c>
       <c r="E34">
-        <v>-0.001049987686173932</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.008259128016284241</v>
+      </c>
+      <c r="F34">
+        <v>-0.01977391399430715</v>
+      </c>
+      <c r="G34">
+        <v>-0.03807373918715546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01167813123681774</v>
+        <v>-0.01157770401700407</v>
       </c>
       <c r="C36">
-        <v>-0.01733868312395693</v>
+        <v>-0.007403754562364434</v>
       </c>
       <c r="D36">
-        <v>0.002377415957581799</v>
+        <v>-0.01139305015284901</v>
       </c>
       <c r="E36">
-        <v>-0.002041925208609654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002261536722634138</v>
+      </c>
+      <c r="F36">
+        <v>0.00208589639781163</v>
+      </c>
+      <c r="G36">
+        <v>-0.02488577128505246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.00634518552500787</v>
+        <v>-0.03237278322040896</v>
       </c>
       <c r="C38">
-        <v>-0.02629554845518298</v>
+        <v>-0.02551810988969593</v>
       </c>
       <c r="D38">
-        <v>0.02404215253587883</v>
+        <v>0.007879413897390917</v>
       </c>
       <c r="E38">
-        <v>-0.0003398460520003105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00492027118009544</v>
+      </c>
+      <c r="F38">
+        <v>0.004708120022485012</v>
+      </c>
+      <c r="G38">
+        <v>-0.03337151781473813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005984062269063626</v>
+        <v>-0.03293836964655842</v>
       </c>
       <c r="C39">
-        <v>0.01516755692584883</v>
+        <v>-0.08047380341728846</v>
       </c>
       <c r="D39">
-        <v>0.09702531342516062</v>
+        <v>-0.01212479459642543</v>
       </c>
       <c r="E39">
-        <v>0.01664071292450741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02246122407160617</v>
+      </c>
+      <c r="F39">
+        <v>-0.03938523512184672</v>
+      </c>
+      <c r="G39">
+        <v>-0.02814829154833438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01062883543331467</v>
+        <v>-0.02260436144105914</v>
       </c>
       <c r="C40">
-        <v>-0.01762375841915871</v>
+        <v>-0.03046983897020548</v>
       </c>
       <c r="D40">
-        <v>0.03961359761982077</v>
+        <v>-0.01281454322189991</v>
       </c>
       <c r="E40">
-        <v>0.01118404170430596</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0180826528954111</v>
+      </c>
+      <c r="F40">
+        <v>-0.01922177223928983</v>
+      </c>
+      <c r="G40">
+        <v>-0.0248198272549415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005108583113347987</v>
+        <v>-0.01318765623333311</v>
       </c>
       <c r="C41">
-        <v>-0.01990987301598881</v>
+        <v>0.001286537580878111</v>
       </c>
       <c r="D41">
-        <v>-0.006582558021917614</v>
+        <v>-0.003426565762421483</v>
       </c>
       <c r="E41">
-        <v>-0.002910893355141161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0009801455457140648</v>
+      </c>
+      <c r="F41">
+        <v>0.002426929479014926</v>
+      </c>
+      <c r="G41">
+        <v>-0.01666636181025177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09456779659447211</v>
+        <v>-0.02025144562793447</v>
       </c>
       <c r="C42">
-        <v>-0.03790420826609803</v>
+        <v>-0.04621778368493955</v>
       </c>
       <c r="D42">
-        <v>0.2266516403513537</v>
+        <v>-0.09654604787069658</v>
       </c>
       <c r="E42">
-        <v>0.2895733031597848</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04432559449365132</v>
+      </c>
+      <c r="F42">
+        <v>0.04328098074317258</v>
+      </c>
+      <c r="G42">
+        <v>0.1744784202766179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005918720809710733</v>
+        <v>-0.02882496018177745</v>
       </c>
       <c r="C43">
-        <v>-0.01878724366971532</v>
+        <v>-0.008403548418922213</v>
       </c>
       <c r="D43">
-        <v>-0.01192805059094897</v>
+        <v>-0.003724011192511614</v>
       </c>
       <c r="E43">
-        <v>0.0006294313445379793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00600539749577455</v>
+      </c>
+      <c r="F43">
+        <v>0.003172327015461604</v>
+      </c>
+      <c r="G43">
+        <v>-0.02252612770172333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002900902878733529</v>
+        <v>-0.01759700378647183</v>
       </c>
       <c r="C44">
-        <v>0.001164887503848969</v>
+        <v>-0.04837004421573384</v>
       </c>
       <c r="D44">
-        <v>0.03051706033327873</v>
+        <v>-0.006238505618347956</v>
       </c>
       <c r="E44">
-        <v>-0.0007807097350734986</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01724050702956164</v>
+      </c>
+      <c r="F44">
+        <v>-0.01013500185226509</v>
+      </c>
+      <c r="G44">
+        <v>-0.03910609145302289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0105888361058355</v>
+        <v>-0.006791061726802591</v>
       </c>
       <c r="C46">
-        <v>-0.01636485777778883</v>
+        <v>-0.01741224971371202</v>
       </c>
       <c r="D46">
-        <v>0.01849300132116345</v>
+        <v>-0.01166390303114895</v>
       </c>
       <c r="E46">
-        <v>0.003962060431877768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0001271724993424894</v>
+      </c>
+      <c r="F46">
+        <v>0.01391315993323055</v>
+      </c>
+      <c r="G46">
+        <v>-0.02687513614900924</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0009557671220253319</v>
+        <v>-0.07405725612491162</v>
       </c>
       <c r="C47">
-        <v>-0.06181408043185397</v>
+        <v>-0.0645889715248997</v>
       </c>
       <c r="D47">
-        <v>0.04769046995915335</v>
+        <v>0.00513810540323321</v>
       </c>
       <c r="E47">
-        <v>0.006469890593106986</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01004303136279634</v>
+      </c>
+      <c r="F47">
+        <v>0.05772895036123696</v>
+      </c>
+      <c r="G47">
+        <v>-0.02540062380279394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002504132273917336</v>
+        <v>-0.02189763920833402</v>
       </c>
       <c r="C48">
-        <v>-0.02744483895657546</v>
+        <v>-0.009389470438439886</v>
       </c>
       <c r="D48">
-        <v>0.01130894353391036</v>
+        <v>-0.0006695055597622466</v>
       </c>
       <c r="E48">
-        <v>0.0002618491052083485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0005126483214052762</v>
+      </c>
+      <c r="F48">
+        <v>0.01367927244170176</v>
+      </c>
+      <c r="G48">
+        <v>-0.02990248424714621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002174721047690817</v>
+        <v>-0.07981887605947716</v>
       </c>
       <c r="C50">
-        <v>-0.05109527094548353</v>
+        <v>-0.06645225676383656</v>
       </c>
       <c r="D50">
-        <v>0.06257304637546814</v>
+        <v>0.003781265551978295</v>
       </c>
       <c r="E50">
-        <v>-0.01846509505004125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009437780414880538</v>
+      </c>
+      <c r="F50">
+        <v>0.0567579408043248</v>
+      </c>
+      <c r="G50">
+        <v>-0.04751211787788111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00707511075263869</v>
+        <v>-0.01210627740232605</v>
       </c>
       <c r="C51">
-        <v>-0.02014976680424777</v>
+        <v>-0.02763641045902183</v>
       </c>
       <c r="D51">
-        <v>-0.01182880145086967</v>
+        <v>-0.008983139523970746</v>
       </c>
       <c r="E51">
-        <v>-0.008870547150724979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.009912995888775523</v>
+      </c>
+      <c r="F51">
+        <v>-0.02573855782500212</v>
+      </c>
+      <c r="G51">
+        <v>-0.05335674284893299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003816470376868233</v>
+        <v>-0.09265801680708813</v>
       </c>
       <c r="C53">
-        <v>-0.08217035558008683</v>
+        <v>-0.08121290250772313</v>
       </c>
       <c r="D53">
-        <v>0.1027971384307272</v>
+        <v>0.00514680558574029</v>
       </c>
       <c r="E53">
-        <v>0.003680728337104341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03852855804973378</v>
+      </c>
+      <c r="F53">
+        <v>0.06570186358810758</v>
+      </c>
+      <c r="G53">
+        <v>-0.02549825606036467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001369192673428186</v>
+        <v>-0.03011398592377868</v>
       </c>
       <c r="C54">
-        <v>-0.03366973895366085</v>
+        <v>-0.008023982060377041</v>
       </c>
       <c r="D54">
-        <v>-0.009541596425418422</v>
+        <v>0.003291875955416421</v>
       </c>
       <c r="E54">
-        <v>-0.01169672873254409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.002647170528646854</v>
+      </c>
+      <c r="F54">
+        <v>0.001297907896527535</v>
+      </c>
+      <c r="G54">
+        <v>-0.03531475177830661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001241673513631003</v>
+        <v>-0.0719760088213207</v>
       </c>
       <c r="C55">
-        <v>-0.05924176290059772</v>
+        <v>-0.07387567772499454</v>
       </c>
       <c r="D55">
-        <v>0.08743704241047594</v>
+        <v>0.004423706182866236</v>
       </c>
       <c r="E55">
-        <v>0.01423379436020654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02623997346415694</v>
+      </c>
+      <c r="F55">
+        <v>0.05914970359625939</v>
+      </c>
+      <c r="G55">
+        <v>-0.01124030573457901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0003895124432959938</v>
+        <v>-0.1429013113258564</v>
       </c>
       <c r="C56">
-        <v>-0.1040124367713747</v>
+        <v>-0.1044739646897756</v>
       </c>
       <c r="D56">
-        <v>0.1304387942450738</v>
+        <v>0.01366317400820163</v>
       </c>
       <c r="E56">
-        <v>0.0148499736576852</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03564434722645672</v>
+      </c>
+      <c r="F56">
+        <v>0.09729536985647969</v>
+      </c>
+      <c r="G56">
+        <v>0.001357640388306428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02304073327820755</v>
+        <v>-0.01142822835444009</v>
       </c>
       <c r="C57">
-        <v>-0.02080978682553412</v>
+        <v>-0.01065122498461232</v>
       </c>
       <c r="D57">
-        <v>0.03887567064691198</v>
+        <v>-0.02357828818764811</v>
       </c>
       <c r="E57">
-        <v>0.01317791360640641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02705504831273459</v>
+      </c>
+      <c r="F57">
+        <v>-0.01773155553057417</v>
+      </c>
+      <c r="G57">
+        <v>-0.01975765869010484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009857713578034251</v>
+        <v>-0.08617365261132717</v>
       </c>
       <c r="C58">
-        <v>-0.09480976062836699</v>
+        <v>-0.04745250658004729</v>
       </c>
       <c r="D58">
-        <v>0.09959147049996279</v>
+        <v>-0.01532843954163553</v>
       </c>
       <c r="E58">
-        <v>0.2167980463865776</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9578346037375982</v>
+      </c>
+      <c r="F58">
+        <v>0.1613299434005535</v>
+      </c>
+      <c r="G58">
+        <v>-0.006326183695927473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02406987157391215</v>
+        <v>-0.1532551919630745</v>
       </c>
       <c r="C59">
-        <v>-0.2261414039207296</v>
+        <v>0.2114048096478682</v>
       </c>
       <c r="D59">
-        <v>-0.188461927817225</v>
+        <v>0.01655866643031879</v>
       </c>
       <c r="E59">
-        <v>-0.007276894934030159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01065337219728283</v>
+      </c>
+      <c r="F59">
+        <v>-0.008539561231635923</v>
+      </c>
+      <c r="G59">
+        <v>-0.02077927200026065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03015780426001928</v>
+        <v>-0.2899326981231323</v>
       </c>
       <c r="C60">
-        <v>-0.1618787315136254</v>
+        <v>-0.09044665691685082</v>
       </c>
       <c r="D60">
-        <v>0.07837876449455751</v>
+        <v>-0.008988633474671222</v>
       </c>
       <c r="E60">
-        <v>0.04993129169305894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02788957227166988</v>
+      </c>
+      <c r="F60">
+        <v>-0.3732111269261882</v>
+      </c>
+      <c r="G60">
+        <v>0.08240693670277971</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002837722498062198</v>
+        <v>-0.03371910283863648</v>
       </c>
       <c r="C61">
-        <v>-0.009672395053508346</v>
+        <v>-0.06398981790311845</v>
       </c>
       <c r="D61">
-        <v>0.06686805092121055</v>
+        <v>-0.005311798225314877</v>
       </c>
       <c r="E61">
-        <v>0.009603661308985283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.009313631884411606</v>
+      </c>
+      <c r="F61">
+        <v>-0.02117288714615421</v>
+      </c>
+      <c r="G61">
+        <v>-0.02642467142756866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007202028492261983</v>
+        <v>-0.0113192177011169</v>
       </c>
       <c r="C63">
-        <v>-0.007564558267802573</v>
+        <v>-0.02929174631457292</v>
       </c>
       <c r="D63">
-        <v>0.008634250230102929</v>
+        <v>-0.008229845929285511</v>
       </c>
       <c r="E63">
-        <v>-0.007056486704356144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.005188192710780061</v>
+      </c>
+      <c r="F63">
+        <v>0.01779070537058743</v>
+      </c>
+      <c r="G63">
+        <v>-0.03612991615103047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006773178562922447</v>
+        <v>-0.05017891928354759</v>
       </c>
       <c r="C64">
-        <v>-0.03341666531603325</v>
+        <v>-0.03867431139605335</v>
       </c>
       <c r="D64">
-        <v>0.06465572109449645</v>
+        <v>-0.004923768085441071</v>
       </c>
       <c r="E64">
-        <v>0.01210187563547558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00549452571416012</v>
+      </c>
+      <c r="F64">
+        <v>-0.003677624637676684</v>
+      </c>
+      <c r="G64">
+        <v>-0.02359878084313097</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01756141098164098</v>
+        <v>-0.08521803418860385</v>
       </c>
       <c r="C65">
-        <v>-0.03041619294854717</v>
+        <v>-0.06302039022472793</v>
       </c>
       <c r="D65">
-        <v>0.09354846574986503</v>
+        <v>-0.01467170699468131</v>
       </c>
       <c r="E65">
-        <v>0.004324034006997141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01078556013087316</v>
+      </c>
+      <c r="F65">
+        <v>-0.02728335618499811</v>
+      </c>
+      <c r="G65">
+        <v>-0.01220666291867896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005396054364346592</v>
+        <v>-0.05410015408946178</v>
       </c>
       <c r="C66">
-        <v>0.004075042495316722</v>
+        <v>-0.1137560363956384</v>
       </c>
       <c r="D66">
-        <v>0.1182622294229479</v>
+        <v>-0.01157645821880054</v>
       </c>
       <c r="E66">
-        <v>0.03225388035761618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02397519275137123</v>
+      </c>
+      <c r="F66">
+        <v>-0.04743424743572357</v>
+      </c>
+      <c r="G66">
+        <v>-0.02043938512128748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001447513383438086</v>
+        <v>-0.05500910186591688</v>
       </c>
       <c r="C67">
-        <v>-0.04374252327342367</v>
+        <v>-0.03003526170599555</v>
       </c>
       <c r="D67">
-        <v>0.02679869926213744</v>
+        <v>0.006235148593145936</v>
       </c>
       <c r="E67">
-        <v>0.001403881100247927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00324234358970463</v>
+      </c>
+      <c r="F67">
+        <v>0.006414234815074962</v>
+      </c>
+      <c r="G67">
+        <v>-0.03149144371820004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04157029516287668</v>
+        <v>-0.135772270802944</v>
       </c>
       <c r="C68">
-        <v>-0.1963084460021746</v>
+        <v>0.2685257843109912</v>
       </c>
       <c r="D68">
-        <v>-0.1814675430181115</v>
+        <v>-0.001224217284432934</v>
       </c>
       <c r="E68">
-        <v>-0.003759240275306772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01134647764449017</v>
+      </c>
+      <c r="F68">
+        <v>0.03765613843542473</v>
+      </c>
+      <c r="G68">
+        <v>-0.02049543059120382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003435432134384116</v>
+        <v>-0.07743098362095877</v>
       </c>
       <c r="C69">
-        <v>-0.04641049414193057</v>
+        <v>-0.06549689223673537</v>
       </c>
       <c r="D69">
-        <v>0.0538582977307626</v>
+        <v>0.009023568805369874</v>
       </c>
       <c r="E69">
-        <v>0.001201043462003053</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02885180986732923</v>
+      </c>
+      <c r="F69">
+        <v>0.04313746739857052</v>
+      </c>
+      <c r="G69">
+        <v>-0.0266439608340227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02916657025476253</v>
+        <v>-0.1342957117464851</v>
       </c>
       <c r="C71">
-        <v>-0.1749749945078585</v>
+        <v>0.2306992441573513</v>
       </c>
       <c r="D71">
-        <v>-0.1611954235569407</v>
+        <v>0.007936931906175814</v>
       </c>
       <c r="E71">
-        <v>-0.01540959206722114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02287302857578308</v>
+      </c>
+      <c r="F71">
+        <v>0.01101968355533444</v>
+      </c>
+      <c r="G71">
+        <v>-0.03098106402412412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002589301701006766</v>
+        <v>-0.08292797990463914</v>
       </c>
       <c r="C72">
-        <v>-0.05021106968257839</v>
+        <v>-0.07303086594689179</v>
       </c>
       <c r="D72">
-        <v>0.1384810324003147</v>
+        <v>0.008617082266629579</v>
       </c>
       <c r="E72">
-        <v>0.03567751137956775</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01286853441146306</v>
+      </c>
+      <c r="F72">
+        <v>-0.03809657448137794</v>
+      </c>
+      <c r="G72">
+        <v>-0.007699075277387075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04432804341490058</v>
+        <v>-0.3962297808268243</v>
       </c>
       <c r="C73">
-        <v>-0.2009304525514937</v>
+        <v>-0.1000279890931516</v>
       </c>
       <c r="D73">
-        <v>0.1433166452713533</v>
+        <v>-0.01411162287064504</v>
       </c>
       <c r="E73">
-        <v>0.1160436924555389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.01877662731403646</v>
+      </c>
+      <c r="F73">
+        <v>-0.5504274434009189</v>
+      </c>
+      <c r="G73">
+        <v>0.1305394312119548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001118542320584187</v>
+        <v>-0.1175079792736207</v>
       </c>
       <c r="C74">
-        <v>-0.09594593702690651</v>
+        <v>-0.1179812263151268</v>
       </c>
       <c r="D74">
-        <v>0.129598530395455</v>
+        <v>0.01031649869330675</v>
       </c>
       <c r="E74">
-        <v>0.02232779092455809</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02158406292421793</v>
+      </c>
+      <c r="F74">
+        <v>0.08360618528322603</v>
+      </c>
+      <c r="G74">
+        <v>-0.03152945611623743</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001130194794301951</v>
+        <v>-0.2583258827616777</v>
       </c>
       <c r="C75">
-        <v>-0.2290651027504686</v>
+        <v>-0.1533006356623859</v>
       </c>
       <c r="D75">
-        <v>0.2227380019028961</v>
+        <v>0.0312743062460766</v>
       </c>
       <c r="E75">
-        <v>0.04829075413220639</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05671774543456019</v>
+      </c>
+      <c r="F75">
+        <v>0.212091626845745</v>
+      </c>
+      <c r="G75">
+        <v>0.04349971995760672</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005307916027966179</v>
+        <v>-0.1358785076304171</v>
       </c>
       <c r="C76">
-        <v>-0.1649049696396919</v>
+        <v>-0.1254289493360472</v>
       </c>
       <c r="D76">
-        <v>0.2099447191010524</v>
+        <v>0.02143321593561939</v>
       </c>
       <c r="E76">
-        <v>0.0117173213225229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05263265315669183</v>
+      </c>
+      <c r="F76">
+        <v>0.1435509759020788</v>
+      </c>
+      <c r="G76">
+        <v>-0.01149891557743783</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01201131216671066</v>
+        <v>-0.06407583166642364</v>
       </c>
       <c r="C77">
-        <v>-0.01622684462581417</v>
+        <v>-0.06394323736280812</v>
       </c>
       <c r="D77">
-        <v>0.0655819308434324</v>
+        <v>-0.01260638071534395</v>
       </c>
       <c r="E77">
-        <v>0.01056841674737213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04806806956925259</v>
+      </c>
+      <c r="F77">
+        <v>-0.01810662819738854</v>
+      </c>
+      <c r="G77">
+        <v>-0.05152919824108312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004031066102351314</v>
+        <v>-0.04126158644064833</v>
       </c>
       <c r="C78">
-        <v>-0.01588344235215548</v>
+        <v>-0.04958337595106455</v>
       </c>
       <c r="D78">
-        <v>0.06315440519450169</v>
+        <v>-0.005415452309168264</v>
       </c>
       <c r="E78">
-        <v>0.006418183298576247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01947155084450418</v>
+      </c>
+      <c r="F78">
+        <v>-0.04340999799579671</v>
+      </c>
+      <c r="G78">
+        <v>-0.03635981202665976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0147086291057352</v>
+        <v>-0.05894195196547129</v>
       </c>
       <c r="C80">
-        <v>-0.1497558135374325</v>
+        <v>-0.06615861770340073</v>
       </c>
       <c r="D80">
-        <v>0.2385152644517926</v>
+        <v>-0.01248546723090331</v>
       </c>
       <c r="E80">
-        <v>-0.894157167388414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04235955967679892</v>
+      </c>
+      <c r="F80">
+        <v>-0.03718365312910332</v>
+      </c>
+      <c r="G80">
+        <v>-0.911317620967909</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001645670868532966</v>
+        <v>-0.1455198033869746</v>
       </c>
       <c r="C81">
-        <v>-0.1448574402170237</v>
+        <v>-0.09434865710120237</v>
       </c>
       <c r="D81">
-        <v>0.1452702125286765</v>
+        <v>0.0160194823809678</v>
       </c>
       <c r="E81">
-        <v>0.02236209240369079</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03095571933112971</v>
+      </c>
+      <c r="F81">
+        <v>0.1373999539738518</v>
+      </c>
+      <c r="G81">
+        <v>-0.01089302345860947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0533648049462996</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03889315376668481</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002733477537226851</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0210335814012882</v>
+      </c>
+      <c r="F82">
+        <v>0.009058247562733258</v>
+      </c>
+      <c r="G82">
+        <v>0.005710373599830494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006534762974359734</v>
+        <v>-0.02766231584797763</v>
       </c>
       <c r="C83">
-        <v>-0.03012554890577034</v>
+        <v>-0.02086035432469196</v>
       </c>
       <c r="D83">
-        <v>0.02374695916097862</v>
+        <v>-0.005140727544277408</v>
       </c>
       <c r="E83">
-        <v>0.008734406316581818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02477332113223528</v>
+      </c>
+      <c r="F83">
+        <v>-0.01917273581454234</v>
+      </c>
+      <c r="G83">
+        <v>-0.0232452871542908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009036863041904436</v>
+        <v>-0.2336601193795722</v>
       </c>
       <c r="C85">
-        <v>-0.1783438592241915</v>
+        <v>-0.1512910871512003</v>
       </c>
       <c r="D85">
-        <v>0.2372713342508727</v>
+        <v>0.01974669128329776</v>
       </c>
       <c r="E85">
-        <v>0.0525859481976279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1040303404090074</v>
+      </c>
+      <c r="F85">
+        <v>0.1890220042410511</v>
+      </c>
+      <c r="G85">
+        <v>0.0640811169590641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006484203678618313</v>
+        <v>-0.01255938939430941</v>
       </c>
       <c r="C86">
-        <v>-0.02233976511077871</v>
+        <v>-0.01589750252782262</v>
       </c>
       <c r="D86">
-        <v>0.009062444068023584</v>
+        <v>-0.009460077299090444</v>
       </c>
       <c r="E86">
-        <v>0.02196296071864512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03274191064779116</v>
+      </c>
+      <c r="F86">
+        <v>-0.03727301346973598</v>
+      </c>
+      <c r="G86">
+        <v>-0.05142093688688455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007446681527429493</v>
+        <v>-0.02091062592537241</v>
       </c>
       <c r="C87">
-        <v>-0.01272618809088462</v>
+        <v>-0.02540054312516965</v>
       </c>
       <c r="D87">
-        <v>0.03822021553008028</v>
+        <v>-0.01065521381882913</v>
       </c>
       <c r="E87">
-        <v>0.009272194931953234</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08713233383726576</v>
+      </c>
+      <c r="F87">
+        <v>-0.03414986678806384</v>
+      </c>
+      <c r="G87">
+        <v>-0.04658956804926898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02647430891725815</v>
+        <v>-0.09179046519414119</v>
       </c>
       <c r="C88">
-        <v>-0.04710990381243988</v>
+        <v>-0.06010864469226601</v>
       </c>
       <c r="D88">
-        <v>0.02830773671281097</v>
+        <v>-0.02161247858832424</v>
       </c>
       <c r="E88">
-        <v>0.007949816762715538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01430481366359099</v>
+      </c>
+      <c r="F88">
+        <v>0.01155978031680436</v>
+      </c>
+      <c r="G88">
+        <v>-0.02236591276172615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05627226079339726</v>
+        <v>-0.2240318344778318</v>
       </c>
       <c r="C89">
-        <v>-0.3403608130833352</v>
+        <v>0.3696674530253238</v>
       </c>
       <c r="D89">
-        <v>-0.2861771827314081</v>
+        <v>0.00885260520017909</v>
       </c>
       <c r="E89">
-        <v>-0.006098371869350212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02224243480417328</v>
+      </c>
+      <c r="F89">
+        <v>0.03331137122118508</v>
+      </c>
+      <c r="G89">
+        <v>-0.03228156840196454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04190286939458571</v>
+        <v>-0.1924943912720643</v>
       </c>
       <c r="C90">
-        <v>-0.2488730818403058</v>
+        <v>0.3347012783138399</v>
       </c>
       <c r="D90">
-        <v>-0.2614069603425017</v>
+        <v>0.01192861764915353</v>
       </c>
       <c r="E90">
-        <v>-0.00296527677341359</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.009103693024380584</v>
+      </c>
+      <c r="F90">
+        <v>0.05218215758637752</v>
+      </c>
+      <c r="G90">
+        <v>0.0008431747837650941</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001402453782609061</v>
+        <v>-0.204974544292912</v>
       </c>
       <c r="C91">
-        <v>-0.1902319476663159</v>
+        <v>-0.1399629663917358</v>
       </c>
       <c r="D91">
-        <v>0.2158982879263524</v>
+        <v>0.02487526732941634</v>
       </c>
       <c r="E91">
-        <v>0.03345674132634875</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07537649500976153</v>
+      </c>
+      <c r="F91">
+        <v>0.1845470844040933</v>
+      </c>
+      <c r="G91">
+        <v>0.002443110296101295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.00878600950851911</v>
+        <v>-0.2026324172353305</v>
       </c>
       <c r="C92">
-        <v>-0.3239598398885716</v>
+        <v>0.2605297738484033</v>
       </c>
       <c r="D92">
-        <v>-0.1373473536461619</v>
+        <v>0.04990562210857968</v>
       </c>
       <c r="E92">
-        <v>0.001462104079852491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0004632627280214146</v>
+      </c>
+      <c r="F92">
+        <v>0.1150807036037788</v>
+      </c>
+      <c r="G92">
+        <v>-0.06405146393338156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03928376711111083</v>
+        <v>-0.2185038596723664</v>
       </c>
       <c r="C93">
-        <v>-0.286407328150718</v>
+        <v>0.3353517834562896</v>
       </c>
       <c r="D93">
-        <v>-0.2649018465728188</v>
+        <v>0.01927434039585971</v>
       </c>
       <c r="E93">
-        <v>0.02021829058583427</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.006583474178928742</v>
+      </c>
+      <c r="F93">
+        <v>0.03047803360259792</v>
+      </c>
+      <c r="G93">
+        <v>0.001765244059795683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01994873698882292</v>
+        <v>-0.2877391341662929</v>
       </c>
       <c r="C94">
-        <v>-0.2356981540640151</v>
+        <v>-0.1688345217470408</v>
       </c>
       <c r="D94">
-        <v>0.2119408263593444</v>
+        <v>0.01376170634786749</v>
       </c>
       <c r="E94">
-        <v>0.08108111983433312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.09070611274165537</v>
+      </c>
+      <c r="F94">
+        <v>0.4239587867170669</v>
+      </c>
+      <c r="G94">
+        <v>0.1397712424759888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006411022423153913</v>
+        <v>-0.08747833933010402</v>
       </c>
       <c r="C95">
-        <v>-0.04887141073711791</v>
+        <v>-0.07628624136740872</v>
       </c>
       <c r="D95">
-        <v>0.07317560513453021</v>
+        <v>0.00752203269505814</v>
       </c>
       <c r="E95">
-        <v>0.1204661813211207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06563739041261632</v>
+      </c>
+      <c r="F95">
+        <v>-0.1981989171044057</v>
+      </c>
+      <c r="G95">
+        <v>0.06493247447819957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005152841796295301</v>
+        <v>-0.2072016337125839</v>
       </c>
       <c r="C98">
-        <v>-0.1684494431688399</v>
+        <v>-0.04280368608302493</v>
       </c>
       <c r="D98">
-        <v>0.1018686108066233</v>
+        <v>0.01654661332517823</v>
       </c>
       <c r="E98">
-        <v>0.07160376244538663</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.04415749290648104</v>
+      </c>
+      <c r="F98">
+        <v>-0.2592060310433186</v>
+      </c>
+      <c r="G98">
+        <v>0.03130634270937463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007154639494566769</v>
+        <v>-0.01437318928163798</v>
       </c>
       <c r="C101">
-        <v>-0.01791225124807397</v>
+        <v>-0.02122528336157712</v>
       </c>
       <c r="D101">
-        <v>0.01550339430284913</v>
+        <v>-0.007056123727163829</v>
       </c>
       <c r="E101">
-        <v>-0.005078831952258882</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.007759992370438576</v>
+      </c>
+      <c r="F101">
+        <v>0.01253473977584159</v>
+      </c>
+      <c r="G101">
+        <v>-0.02995249056167596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01388018760325515</v>
+        <v>-0.1223174280816611</v>
       </c>
       <c r="C102">
-        <v>-0.1125137651271369</v>
+        <v>-0.08345695751120859</v>
       </c>
       <c r="D102">
-        <v>0.1115452763565941</v>
+        <v>-0.0004633202186213611</v>
       </c>
       <c r="E102">
-        <v>0.02548089685279514</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03642418457001727</v>
+      </c>
+      <c r="F102">
+        <v>0.05568584901828166</v>
+      </c>
+      <c r="G102">
+        <v>0.009523480682132528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001871692584360144</v>
+        <v>-0.004518620321137111</v>
       </c>
       <c r="C103">
-        <v>-0.01746502309772721</v>
+        <v>-0.00491033247771677</v>
       </c>
       <c r="D103">
-        <v>0.02699929868986514</v>
+        <v>-0.0004445839078380802</v>
       </c>
       <c r="E103">
-        <v>-0.01138038512959355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002010165713942261</v>
+      </c>
+      <c r="F103">
+        <v>0.009045257379123305</v>
+      </c>
+      <c r="G103">
+        <v>-0.01777069609749262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9846774603077937</v>
+        <v>-0.03565082639241282</v>
       </c>
       <c r="C104">
-        <v>0.1085098152367669</v>
+        <v>0.04249653148263145</v>
       </c>
       <c r="D104">
-        <v>0.004749364330362706</v>
+        <v>-0.9869922606649664</v>
       </c>
       <c r="E104">
-        <v>-0.02641751926174491</v>
+        <v>-0.03675670667127898</v>
+      </c>
+      <c r="F104">
+        <v>0.04468493114453709</v>
+      </c>
+      <c r="G104">
+        <v>0.007100768235166969</v>
       </c>
     </row>
   </sheetData>
